--- a/syscon_usb/DACS_V1_0_ISE/tools/ana_in_memory_timing.xlsx
+++ b/syscon_usb/DACS_V1_0_ISE/tools/ana_in_memory_timing.xlsx
@@ -4,17 +4,101 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="19035" windowHeight="12015"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="19035" windowHeight="12015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arbitration" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Norton Allen</author>
+  </authors>
+  <commentList>
+    <comment ref="D16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Norton Allen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Latest transition</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Norton Allen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Earliest transition</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Norton Allen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Earliest transition</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Read</t>
   </si>
@@ -35,19 +119,114 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Times refer to the time at the start of the cell</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>CfgEn</t>
+  </si>
+  <si>
+    <t>RAM_BUSYR</t>
+  </si>
+  <si>
+    <t>RAM_BUSY</t>
+  </si>
+  <si>
+    <t>RAM_BUSYW</t>
+  </si>
+  <si>
+    <t>0+δ</t>
+  </si>
+  <si>
+    <t>SB_WrEn</t>
+  </si>
+  <si>
+    <t>RAM_WrEn</t>
+  </si>
+  <si>
+    <t>T0+δ</t>
+  </si>
+  <si>
+    <t>T0 &lt;= 40+δ</t>
+  </si>
+  <si>
+    <t>RAM_RdEn</t>
+  </si>
+  <si>
+    <r>
+      <t>T0+40 &lt;= 80+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>δ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T0+80 &lt;= 120+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>δ: Too close to call</t>
+    </r>
+  </si>
+  <si>
+    <t>RowU</t>
+  </si>
+  <si>
+    <t>RowN</t>
+  </si>
+  <si>
+    <t>RowNN</t>
+  </si>
+  <si>
+    <t>0*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -76,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -149,11 +328,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -177,13 +436,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -832,49 +1121,49 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23">
-        <v>0</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
+      <c r="B9" s="34">
+        <v>0</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="23">
-        <v>1</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1"/>
@@ -1241,49 +1530,49 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="34">
         <f>B10</f>
         <v>1</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="34">
         <f>B17+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1"/>
@@ -1650,49 +1939,49 @@
       <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="34">
         <f>B18</f>
         <v>2</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="34">
         <f>B25+1</f>
         <v>3</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1706,4 +1995,369 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="2" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="2" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="26" customFormat="1">
+      <c r="A3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36">
+        <v>125</v>
+      </c>
+      <c r="J3" s="37"/>
+      <c r="K3" s="36">
+        <v>250</v>
+      </c>
+      <c r="L3" s="38"/>
+    </row>
+    <row r="4" spans="1:13" s="26" customFormat="1">
+      <c r="D4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" s="26" customFormat="1">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" s="26" customFormat="1">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="24"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="10" width="3.140625" style="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="39">
+        <v>5</v>
+      </c>
+      <c r="C2" s="39">
+        <v>6</v>
+      </c>
+      <c r="D2" s="39">
+        <v>7</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="39">
+        <v>0</v>
+      </c>
+      <c r="G2" s="39">
+        <v>1</v>
+      </c>
+      <c r="H2" s="39">
+        <v>2</v>
+      </c>
+      <c r="I2" s="39">
+        <v>3</v>
+      </c>
+      <c r="J2" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="39">
+        <f>C2</f>
+        <v>6</v>
+      </c>
+      <c r="C3" s="39">
+        <f t="shared" ref="C3:I4" si="0">D2</f>
+        <v>7</v>
+      </c>
+      <c r="D3" s="39">
+        <v>0</v>
+      </c>
+      <c r="E3" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3" s="39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H3" s="39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I3" s="39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="39">
+        <f t="shared" ref="B4:H4" si="1">C3</f>
+        <v>7</v>
+      </c>
+      <c r="C4" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G4" s="39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H4" s="39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="39">
+        <f>B2</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="39">
+        <f t="shared" ref="C5:J5" si="2">C2</f>
+        <v>6</v>
+      </c>
+      <c r="D5" s="39">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>0*</v>
+      </c>
+      <c r="F5" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="39">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="39">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J5" s="39">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>